--- a/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D52B7-C86C-4D58-A05F-2256BB262BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23318C4-E479-45DE-BB21-E9068A83B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -296,42 +296,9 @@
     <t>output data</t>
   </si>
   <si>
-    <t>titlu</t>
-  </si>
-  <si>
-    <t>regizor</t>
-  </si>
-  <si>
-    <t>an aparitie</t>
-  </si>
-  <si>
-    <t>actori</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
-    <t>cuvinte cheie</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>"Movie Title"</t>
-  </si>
-  <si>
-    <t>Actor1, Actor2</t>
-  </si>
-  <si>
-    <t>keyword1, keyword2</t>
-  </si>
-  <si>
-    <t>2,3,2</t>
-  </si>
-  <si>
-    <t>record added</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -341,18 +308,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>201q</t>
-  </si>
-  <si>
-    <t>Error message-? Compiler checked</t>
-  </si>
-  <si>
     <t>BVA Condition</t>
   </si>
   <si>
@@ -380,18 +335,6 @@
     <t>TC3_EC</t>
   </si>
   <si>
-    <t>"M"</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>"M…123"</t>
-  </si>
-  <si>
-    <t>"M…12"</t>
-  </si>
-  <si>
     <t>BBT TCs</t>
   </si>
   <si>
@@ -416,25 +359,10 @@
     <t>TC1_ECP</t>
   </si>
   <si>
-    <t>Director1, Director2</t>
-  </si>
-  <si>
-    <t>TC3_ECP</t>
-  </si>
-  <si>
-    <t>Error message-Empty movie title</t>
-  </si>
-  <si>
     <t>TC5_ECP</t>
   </si>
   <si>
-    <t>TC3_BVA</t>
-  </si>
-  <si>
     <t>TC4_BVA</t>
-  </si>
-  <si>
-    <t>TC5_BVA</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -518,16 +446,10 @@
     <t>Error message - "Table number must be between 1 and 8."</t>
   </si>
   <si>
-    <t>2,4,7</t>
-  </si>
-  <si>
     <t>1,6,7</t>
   </si>
   <si>
     <t>Error message - "Amount must be between 0 and 1000."</t>
-  </si>
-  <si>
-    <t>1,5,7</t>
   </si>
   <si>
     <t>table number</t>
@@ -622,6 +544,33 @@
   </si>
   <si>
     <t>1.table = 4</t>
+  </si>
+  <si>
+    <t>1,4,8</t>
+  </si>
+  <si>
+    <t>2,4,8</t>
+  </si>
+  <si>
+    <t>1,5,8</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t>TC8_ECP</t>
+  </si>
+  <si>
+    <t>TC1_BVA</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>TC6_BVA</t>
   </si>
 </sst>
 </file>
@@ -878,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1068,17 +1017,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1404,31 +1342,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1495,35 +1454,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1539,215 +1498,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2074,24 +2036,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="H1" s="40" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2107,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2">
         <v>232</v>
@@ -2118,19 +2080,19 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
+      <c r="B6" s="25"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="J6" s="2">
         <v>232</v>
@@ -2138,7 +2100,7 @@
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2199,7 +2161,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2209,7 +2171,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2253,25 +2215,25 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="39"/>
+      <c r="C26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2291,8 +2253,8 @@
   </sheetPr>
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2311,350 +2273,347 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
+      <c r="B3" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="78" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="70" t="s">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="47">
+      <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="16" t="s">
+      <c r="C7" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="67"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="44">
+        <v>2</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="39">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39">
+        <v>222.2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="44">
+        <v>3</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="39">
+        <v>2</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="43">
+        <v>4</v>
+      </c>
+      <c r="J9" s="43">
+        <v>100.5</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="75"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="44">
+        <v>4</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="G10" s="39">
+        <v>3</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="43">
+        <v>6</v>
+      </c>
+      <c r="J10" s="43">
+        <v>49.99</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="75"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44">
+        <v>5</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="39">
+        <v>4</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="43">
+        <v>8</v>
+      </c>
+      <c r="J11" s="43">
+        <v>29.99</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
+        <v>6</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="39">
+        <v>5</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="43">
+        <v>-10</v>
+      </c>
+      <c r="J12" s="43">
+        <v>750.5</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="44">
+        <v>7</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="G13" s="39">
+        <v>6</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="I13" s="43">
+        <v>100</v>
+      </c>
+      <c r="J13" s="43">
+        <v>400</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="75"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="44">
+        <v>8</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="G14" s="39">
+        <v>7</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="43">
+        <v>4</v>
+      </c>
+      <c r="J14" s="43">
+        <v>25000</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="75"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="44"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="G15" s="39">
+        <v>8</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="73"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="47">
-        <v>2</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="43">
-        <v>1</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="42">
-        <v>1</v>
-      </c>
-      <c r="J8" s="42">
-        <v>222.2</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="47">
-        <v>3</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="42">
-        <v>2</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="46">
-        <v>4</v>
-      </c>
-      <c r="J9" s="46">
-        <v>100.5</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="64"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="47">
-        <v>4</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="G10" s="42">
-        <v>3</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="46">
-        <v>6</v>
-      </c>
-      <c r="J10" s="46">
-        <v>49.99</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="64"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47">
-        <v>5</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="42">
-        <v>4</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="46">
-        <v>8</v>
-      </c>
-      <c r="J11" s="46">
-        <v>29.99</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="47">
-        <v>6</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="42">
-        <v>5</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="46">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="46">
-        <v>750.5</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="64"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="47">
+      <c r="I15" s="43">
         <v>7</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="G13" s="42">
-        <v>6</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="46">
-        <v>100</v>
-      </c>
-      <c r="J13" s="46">
-        <v>400</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="64"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="47">
-        <v>8</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="G14" s="42">
-        <v>7</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="46">
-        <v>4</v>
-      </c>
-      <c r="J14" s="46">
-        <v>25000</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="64"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="G15" s="42">
-        <v>8</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="46">
-        <v>7</v>
-      </c>
-      <c r="J15" s="46">
+      <c r="J15" s="43">
         <v>-77</v>
       </c>
-      <c r="K15" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="66"/>
+      <c r="K15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="L6:M6"/>
@@ -2671,6 +2630,11 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2683,8 +2647,8 @@
   </sheetPr>
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,369 +2669,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
+      <c r="B3" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
+      <c r="G5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="G6" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="84" t="s">
+      <c r="D6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="84" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="87"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59">
+      <c r="B7" s="70">
         <v>1</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="73"/>
+      <c r="C7" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="44">
         <v>1</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="49">
+      <c r="I8" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="46">
         <v>4</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="49">
+      <c r="L8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="46">
         <v>50</v>
       </c>
-      <c r="N8" s="86" t="s">
+      <c r="N8" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="75"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="44">
+        <v>2</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="46">
+        <v>9</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="46">
+        <v>50</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="75"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="45"/>
+      <c r="G10" s="13">
+        <v>3</v>
+      </c>
+      <c r="H10" s="44">
+        <v>3</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="46">
+        <v>0</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="46">
+        <v>50</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="75"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="45"/>
+      <c r="G11" s="13">
+        <v>4</v>
+      </c>
+      <c r="H11" s="44">
+        <v>4</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="46">
+        <v>4</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="46">
+        <v>50</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="75"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="45"/>
+      <c r="G12" s="13">
+        <v>5</v>
+      </c>
+      <c r="H12" s="44">
+        <v>5</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="64"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="J12" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="46">
+        <v>4</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="75"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="70">
         <v>2</v>
       </c>
-      <c r="H9" s="47">
-        <v>2</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="49">
-        <v>9</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="49">
-        <v>50</v>
-      </c>
-      <c r="N9" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="64"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="48"/>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
-      <c r="H10" s="47">
-        <v>3</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="49">
-        <v>0</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="49">
-        <v>50</v>
-      </c>
-      <c r="N10" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" s="64"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="48"/>
-      <c r="G11" s="16">
+      <c r="C13" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="12">
+        <v>6</v>
+      </c>
+      <c r="H13" s="44">
+        <v>6</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="46">
         <v>4</v>
       </c>
-      <c r="H11" s="47">
-        <v>4</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="49">
-        <v>4</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="49">
-        <v>50</v>
-      </c>
-      <c r="N11" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="64"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="48"/>
-      <c r="G12" s="16">
-        <v>5</v>
-      </c>
-      <c r="H12" s="47">
-        <v>5</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="49">
-        <v>4</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="49">
-        <v>0</v>
-      </c>
-      <c r="N12" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="64"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="59">
-        <v>2</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="15">
-        <v>6</v>
-      </c>
-      <c r="H13" s="47">
-        <v>6</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="49">
-        <v>4</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="49">
+      <c r="L13" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="46">
         <v>1000.01</v>
       </c>
-      <c r="N13" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="64"/>
+      <c r="N13" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="75"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="89"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="48"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="89"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="45"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="48"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="45"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="79"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="48"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="89"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="45"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
@@ -3084,16 +3058,6 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3108,7 +3072,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3124,553 +3088,434 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
+      <c r="B3" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="71" t="s">
+      <c r="B4" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="70"/>
+      <c r="N4" s="64"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="102"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="19" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="N5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="22">
-        <v>2010</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>44</v>
+      <c r="N6" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2010</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>44</v>
+      <c r="N7" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>44</v>
+      <c r="C8" s="103"/>
+      <c r="D8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="128"/>
-      <c r="M9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>44</v>
+      <c r="C9" s="103"/>
+      <c r="D9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2010</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="121"/>
-      <c r="M10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>44</v>
+      <c r="C10" s="103"/>
+      <c r="D10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2010</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="121"/>
-      <c r="M11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>44</v>
+      <c r="C11" s="103"/>
+      <c r="D11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2010</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>44</v>
+      <c r="C12" s="103"/>
+      <c r="D12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>44</v>
+      <c r="C13" s="104"/>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="94"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="94"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
+      <c r="C17" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="117"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="117"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="116"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="91" t="s">
-        <v>86</v>
+      <c r="B18" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="119"/>
+      <c r="J18" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="113" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="91"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="113"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="29">
+      <c r="B20" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="26">
         <v>8</v>
       </c>
-      <c r="D20" s="31">
-        <v>5</v>
-      </c>
-      <c r="E20" s="31">
-        <v>3</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="106"/>
+      <c r="D20" s="28">
+        <v>4</v>
+      </c>
+      <c r="E20" s="28">
+        <v>4</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="28">
         <v>3</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="29">
         <v>0</v>
       </c>
-      <c r="M20" s="34" t="s">
-        <v>90</v>
+      <c r="M20" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="28">
         <v>5</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3678,22 +3523,24 @@
       <c r="M21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="40">
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -3709,12 +3556,14 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3723,12 +3572,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3876,15 +3722,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3908,10 +3758,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23318C4-E479-45DE-BB21-E9068A83B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B85D27-5C05-4203-9EB2-514A42D98EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>1,5,8</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>TC2_ECP</t>
@@ -1498,27 +1495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,26 +1540,26 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,17 +1568,47 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,6 +1616,87 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,97 +1706,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2281,31 +2278,31 @@
       <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
@@ -2320,35 +2317,35 @@
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="64" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="63" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="44"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="13" t="s">
         <v>76</v>
       </c>
@@ -2358,16 +2355,16 @@
       <c r="K7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="67"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="44">
         <v>2</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44" t="s">
         <v>80</v>
@@ -2396,7 +2393,7 @@
       <c r="B9" s="44">
         <v>3</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44" t="s">
         <v>81</v>
@@ -2416,16 +2413,16 @@
       <c r="K9" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="75"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="44">
         <v>4</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -2447,16 +2444,16 @@
       <c r="K10" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="44">
         <v>5</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44" t="s">
         <v>83</v>
@@ -2485,7 +2482,7 @@
       <c r="B12" s="44">
         <v>6</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44" t="s">
         <v>84</v>
@@ -2505,16 +2502,16 @@
       <c r="K12" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="75"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <v>7</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="63" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -2536,16 +2533,16 @@
       <c r="K13" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="76" t="s">
+      <c r="L13" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="75"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="44">
         <v>8</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="44" t="s">
         <v>85</v>
       </c>
@@ -2565,14 +2562,14 @@
       <c r="K14" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="76" t="s">
+      <c r="L14" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="44"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="G15" s="39">
@@ -2590,14 +2587,14 @@
       <c r="K15" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="76" t="s">
+      <c r="L15" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="77"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="44"/>
-      <c r="C16" s="73"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="G16" s="12"/>
@@ -2605,15 +2602,20 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="L6:M6"/>
@@ -2630,11 +2632,6 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2647,7 +2644,7 @@
   </sheetPr>
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -2677,33 +2674,33 @@
       <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
     </row>
     <row r="6" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="44" t="s">
@@ -2716,42 +2713,42 @@
         <v>36</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="82" t="s">
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="83"/>
+      <c r="O6" s="87"/>
     </row>
     <row r="7" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70">
+      <c r="B7" s="63">
         <v>1</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="80" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="63"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="13" t="s">
         <v>76</v>
       </c>
@@ -2761,14 +2758,14 @@
       <c r="M7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="67"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="45" t="s">
         <v>89</v>
       </c>
@@ -2793,14 +2790,14 @@
       <c r="M8" s="46">
         <v>50</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="75"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="45" t="s">
         <v>90</v>
       </c>
@@ -2825,14 +2822,14 @@
       <c r="M9" s="46">
         <v>50</v>
       </c>
-      <c r="N9" s="81" t="s">
+      <c r="N9" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="75"/>
+      <c r="O9" s="68"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="45"/>
       <c r="G10" s="13">
         <v>3</v>
@@ -2855,14 +2852,14 @@
       <c r="M10" s="46">
         <v>50</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="75"/>
+      <c r="O10" s="68"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="45"/>
       <c r="G11" s="13">
         <v>4</v>
@@ -2885,14 +2882,14 @@
       <c r="M11" s="46">
         <v>50</v>
       </c>
-      <c r="N11" s="81" t="s">
+      <c r="N11" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="O11" s="75"/>
+      <c r="O11" s="68"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="45"/>
       <c r="G12" s="13">
         <v>5</v>
@@ -2915,16 +2912,16 @@
       <c r="M12" s="46">
         <v>0</v>
       </c>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="75"/>
+      <c r="O12" s="68"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="70">
+      <c r="B13" s="63">
         <v>2</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -2951,14 +2948,14 @@
       <c r="M13" s="46">
         <v>1000.01</v>
       </c>
-      <c r="N13" s="81" t="s">
+      <c r="N13" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="75"/>
+      <c r="O13" s="68"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="45" t="s">
         <v>92</v>
       </c>
@@ -2969,12 +2966,12 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="79"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="48" t="s">
         <v>98</v>
       </c>
@@ -2985,12 +2982,12 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="79"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="85"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="45"/>
       <c r="G16" s="13"/>
       <c r="H16" s="10"/>
@@ -2999,12 +2996,12 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="79"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="45"/>
       <c r="G17" s="13"/>
       <c r="H17" s="10"/>
@@ -3013,12 +3010,12 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="79"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="45"/>
       <c r="G18" s="13"/>
       <c r="H18" s="10"/>
@@ -3027,21 +3024,11 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="79"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
@@ -3058,6 +3045,16 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="N14:O14"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3071,8 +3068,8 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,54 +3093,54 @@
       <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="64"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="105"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="13" t="s">
         <v>76</v>
       </c>
@@ -3153,10 +3150,10 @@
       <c r="H5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
       <c r="M5" s="16" t="s">
         <v>32</v>
       </c>
@@ -3168,7 +3165,7 @@
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="108" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -3182,8 +3179,8 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="14" t="s">
         <v>71</v>
       </c>
@@ -3196,9 +3193,9 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>35</v>
@@ -3208,8 +3205,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="98"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="8" t="s">
         <v>73</v>
       </c>
@@ -3222,7 +3219,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="21" t="s">
         <v>53</v>
       </c>
@@ -3248,9 +3245,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>34</v>
@@ -3260,8 +3257,8 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="8" t="s">
         <v>75</v>
       </c>
@@ -3274,15 +3271,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="103"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+        <v>106</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="8" t="s">
         <v>71</v>
       </c>
@@ -3295,20 +3292,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="47"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
       <c r="M11" s="8" t="s">
         <v>73</v>
       </c>
@@ -3321,7 +3318,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
@@ -3331,10 +3328,10 @@
       <c r="F12" s="46"/>
       <c r="G12" s="47"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="8" t="s">
         <v>71</v>
       </c>
@@ -3347,18 +3344,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="47"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="125"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="94"/>
       <c r="K13" s="88"/>
       <c r="L13" s="89"/>
       <c r="M13" s="15" t="s">
@@ -3385,98 +3382,98 @@
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="117"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="114" t="s">
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="116"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="104"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="119"/>
-      <c r="J18" s="112" t="s">
+      <c r="I18" s="118"/>
+      <c r="J18" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="112" t="s">
+      <c r="K18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="113" t="s">
+      <c r="L18" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="112" t="s">
+      <c r="O18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="113" t="s">
+      <c r="P18" s="99" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="113"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="99"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
@@ -3491,20 +3488,20 @@
       <c r="E20" s="28">
         <v>4</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>104</v>
-      </c>
+      <c r="F20" s="29"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
+      <c r="H20" s="113">
+        <v>8</v>
+      </c>
+      <c r="I20" s="114"/>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K20" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" s="31" t="s">
         <v>66</v>
@@ -3524,6 +3521,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
@@ -3534,36 +3561,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3572,9 +3569,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3722,19 +3722,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3758,9 +3754,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>